--- a/Hbase.xlsx
+++ b/Hbase.xlsx
@@ -8,13 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="Hbase" sheetId="1" r:id="rId1"/>
+    <sheet name="实用场景" sheetId="3" r:id="rId2"/>
+    <sheet name="Hbase Shell" sheetId="2" r:id="rId3"/>
+    <sheet name="递归游戏" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
   <si>
     <t>应用场景</t>
   </si>
@@ -43,173 +46,761 @@
     <t>消息/订单：在电信领域、银行领域，不少的订单查询底层的存储，另外不少通信、消息同步的应用构建在HBase之上</t>
   </si>
   <si>
-    <t>Feeds流：典型的应用就是xx朋友圈类似的应用</t>
-  </si>
-  <si>
     <t>NewSQL：之上有Phoenix的插件，可以满足二级索引、SQL的需求，对接传统数据需要SQL非事务的需求</t>
   </si>
   <si>
+    <t>Hbase概述</t>
+  </si>
+  <si>
+    <t>其内部管理的文件全部存储在HDFS中</t>
+  </si>
+  <si>
+    <t>Hbase数据是按列存储-每一列单独存放。列存储的优点是数据即是索引</t>
+  </si>
+  <si>
+    <t>Hbase解决HDFS的问题：</t>
+  </si>
+  <si>
+    <t>每个表开始只有一个region，随 着数据增多，region不断增大，当增大到一个阀值的时候， region就会等分会两个新的region，之后会有越来越多的 region</t>
+  </si>
+  <si>
+    <t>Region虽然是分布式存储的最小单元，但并不是存储 的最小单元</t>
+  </si>
+  <si>
+    <t>Region由一个或者多个Store组成，每个store保存一个 columns family。</t>
+  </si>
+  <si>
+    <t>每个Strore又由一个memStore和0至多个StoreFile组成</t>
+  </si>
+  <si>
+    <t>memStore存储在内存中，StoreFile存储在HDFS上</t>
+  </si>
+  <si>
+    <t>问题：解释一下元数据？</t>
+  </si>
+  <si>
+    <t>Client包含访问HBase的接口，并维护cache来加快对HBase的访问</t>
+  </si>
+  <si>
+    <t>Zookeeper用来保证任何时候，集群中只有一个master，存贮所有Region的寻址入口以及实时监控Region server的上线和下线信息。并实时通知给Master存储HBase的schema和table元数据</t>
+  </si>
+  <si>
+    <t>HMaster负责为Region server分配region和Region server的负载均衡。如果发现失效的Region server并重新分配其上的region。同时，管理用户对table的增删改查操作</t>
+  </si>
+  <si>
+    <t>Region Server 负责维护region，处理对这些region的IO请求并且切分在运行过程中变得过大的region</t>
+  </si>
+  <si>
+    <t>Client每次写数据库之前，都会首先血Hlog日志。记录写操作。如果不做日志记录，一旦发生故障，操作将不可恢复</t>
+  </si>
+  <si>
+    <t> HBase 依赖ZooKeeper，默认情况下，HBase 管理ZooKeeper 实例。比如， 启动或者停止ZooKeeper。Master与RegionServers 启动时会向ZooKeeper注册。</t>
+  </si>
+  <si>
+    <t>在表创建时声明，每个Column Family为一个存储单元</t>
+  </si>
+  <si>
+    <t>Column（列）</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Row key</t>
+  </si>
+  <si>
+    <t>Column Family（列族）</t>
+  </si>
+  <si>
+    <t>TableName 是字符串</t>
+  </si>
+  <si>
+    <t>RowKey 和 ColumnName 是二进制值（Java 类型 byte[]）</t>
+  </si>
+  <si>
+    <t>Timestamp 是一个 64 位整数（Java 类型 long）</t>
+  </si>
+  <si>
+    <t>value 是一个字节数组（Java类型 byte[]）</t>
+  </si>
+  <si>
+    <t>表应该有多少个列簇</t>
+  </si>
+  <si>
+    <t>列簇使用什么数据</t>
+  </si>
+  <si>
+    <t>每个列簇应有多少个列</t>
+  </si>
+  <si>
+    <t>列名应该是什么，尽管列名不必在建表时定义，但是读写数据时是需要的</t>
+  </si>
+  <si>
+    <t>列可以动态增加，并且列为空就不存储数据，节省存储空间</t>
+  </si>
+  <si>
+    <t>Hbase自动切分数据，使得数据存储自动具有水平scalability</t>
+  </si>
+  <si>
+    <t>Hbase可以提供高并发读写操作的支持</t>
+  </si>
+  <si>
+    <t>不能支持条件查询，只支持按照Row key来查询</t>
+  </si>
+  <si>
+    <t>HBase并不适合传统的事物处理程序或关联分析，不支持复杂查询</t>
+  </si>
+  <si>
+    <t>缺点</t>
+  </si>
+  <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>设计时应该考虑什么问题</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HDFS适合批处理场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不支持</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据随机查找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不适合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增量数据处理且不支持数据更新</t>
+    </r>
+  </si>
+  <si>
+    <t>每个列都属于一个列族，以列族名为前缀，如列article:title和article:content属于article列族</t>
+  </si>
+  <si>
+    <t>通过row和column确定一份数据，这份数据的值可能有多个版本，不同版本的值按照时间倒序排序，即最新的数据排在最前面，查询时默认返回最新版本</t>
+  </si>
+  <si>
+    <t>Column Family</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1： N</t>
+  </si>
+  <si>
+    <r>
+      <t>Region是HBase中分布式存储和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负载均衡的最小单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。 不同Region分布到不同RegionServer上。</t>
+    </r>
+  </si>
+  <si>
+    <t>Region是hbase最小的逻辑存储单元</t>
+  </si>
+  <si>
+    <t>物理的是StoreFile，Hfile</t>
+  </si>
+  <si>
+    <t>一个Region包含一个或者多个StoreFile</t>
+  </si>
+  <si>
+    <t>一个StoreFile包含一个或者多个Hfile</t>
+  </si>
+  <si>
+    <t>zookeeper使 Master不再是单点故障</t>
+  </si>
+  <si>
+    <t>两个人做一个游戏。第一个人先从1和2中挑一个数字，第二个人可以在对方的基础上选择加1，或者加2。然后又轮到了第一个人，他可以再次选择加1，或者加2，之后把选择权交给对方。就这样双方交替地选择加1或者加2，谁要是正好加到20，谁就赢了。用什么策略保证一定能赢？</t>
+  </si>
+  <si>
+    <t>Feeds流：朋友圈，快手，抖音</t>
+  </si>
+  <si>
+    <t>在线查询订单生命周期的各个状态，包括status、event_type、order_detail等信息。主要的查询来自于客服系统。</t>
+  </si>
+  <si>
+    <t>在线历史订单详情查询。上层会有Redis来存储近期的订单，当Redis不可用或者查询范围超出Redis，查询会直接落到HBase。</t>
+  </si>
+  <si>
+    <t>离线对订单的状态进行分析。</t>
+  </si>
+  <si>
+    <t>写入满足每秒10K的事件，读取满足每秒1K的事件，数据要求在5s内可用。</t>
+  </si>
+  <si>
+    <t>业务要求</t>
+  </si>
+  <si>
+    <t>滴滴的应用场景和实践</t>
+  </si>
+  <si>
+    <t>满足离线大规模的轨迹分析；</t>
+  </si>
+  <si>
+    <t>满足给出一个指定的地理范围，取出范围内所有用户的轨迹或范围内出现过的用户</t>
+  </si>
+  <si>
+    <t>列举一个Hbase的实用场景？</t>
+  </si>
+  <si>
+    <t>进入hbase shell console</t>
+  </si>
+  <si>
+    <t>$HBASE_HOME/bin/hbase shell</t>
+  </si>
+  <si>
+    <t>hbase(main)&gt; list</t>
+  </si>
+  <si>
+    <t># 语法：create &lt;table&gt;, {NAME =&gt; &lt;family&gt;, VERSIONS =&gt; &lt;VERSIONS&gt;}</t>
+  </si>
+  <si>
+    <t># 例如：创建表t1，有两个family name：f1，f2，且版本数均为2</t>
+  </si>
+  <si>
+    <t># 语法：describe &lt;table&gt;</t>
+  </si>
+  <si>
+    <t># 例如：查看表t1的结构</t>
+  </si>
+  <si>
+    <t>hbase(main)&gt; describe "t1"</t>
+  </si>
+  <si>
+    <t># 语法：put &lt;table&gt;,&lt;rowkey&gt;,&lt;family:column&gt;,&lt;value&gt;,&lt;timestamp&gt;</t>
+  </si>
+  <si>
+    <t># 例如：给表t1的添加一行记录：rowkey是rowkey001，family name：f1，column name：col1，value：value01，timestamp：系统默认</t>
+  </si>
+  <si>
+    <t>查询某行记录</t>
+  </si>
+  <si>
+    <t># 语法：get &lt;table&gt;,&lt;rowkey&gt;,[&lt;family:column&gt;,....]</t>
+  </si>
+  <si>
+    <t># 例如：查询表t1，rowkey001中的f1下的col1的值</t>
+  </si>
+  <si>
+    <t># 或者：</t>
+  </si>
+  <si>
+    <t># 查询表t1，rowke002中的f1下的所有列值</t>
+  </si>
+  <si>
+    <t>扫描表</t>
+  </si>
+  <si>
+    <t># 语法：scan &lt;table&gt;, {COLUMNS =&gt; [ &lt;family:column&gt;,.... ], LIMIT =&gt; num}</t>
+  </si>
+  <si>
+    <t># 另外，还可以添加STARTROW、TIMERANGE和FITLER等高级功能</t>
+  </si>
+  <si>
+    <t># 例如：扫描表t1的前5条数据</t>
+  </si>
+  <si>
+    <t>删除数据</t>
+  </si>
+  <si>
+    <t># 语法：delete &lt;table&gt;, &lt;rowkey&gt;,  &lt;family:column&gt; , &lt;timestamp&gt;,必须指定列名</t>
+  </si>
+  <si>
+    <t># 例如：删除表t1，rowkey001中的f1:col1的数据</t>
+  </si>
+  <si>
+    <t>create 't1', {NAME =&gt; 'f1', VERSIONS =&gt; 1}, {NAME =&gt; 'f2', VERSIONS =&gt; 1}, {NAME =&gt; 'f3', VERSIONS =&gt; 1}</t>
+  </si>
+  <si>
+    <t>查看有哪些表</t>
+  </si>
+  <si>
+    <t>创建表</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hbase(main)&gt; disable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'t1'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hbase(main)&gt; drop </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'t1'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hbase(main)&gt; put </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'t1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'rowkey001'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'f1:col1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'value01'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hbase(main)&gt; get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'t1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'rowkey001'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'f1:col1'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hbase(main)&gt; get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'t1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'rowkey001'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, {COLUMN=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'f1:col1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hbase(main)&gt; get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'t1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'rowkey001'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hbase(main)&gt; scan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'t1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,{LIMIT=&gt;5}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hbase(main)&gt; delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'t1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'rowkey001'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'f1:col1'</t>
+    </r>
+  </si>
+  <si>
+    <t>删除表</t>
+  </si>
+  <si>
+    <t>查看表的结构</t>
+  </si>
+  <si>
+    <t>添加数据</t>
+  </si>
+  <si>
+    <t>基本架构</t>
+  </si>
+  <si>
+    <t>数据模型</t>
+  </si>
+  <si>
     <t>hbase是一个构建在HDFS上的分布式列存储系统</t>
   </si>
   <si>
-    <t>Hbase概述</t>
-  </si>
-  <si>
-    <t>其内部管理的文件全部存储在HDFS中</t>
-  </si>
-  <si>
-    <t>HDFS适合批处理场景，不支持数据随机查找，不适合增量数据处理且不支持数据更新</t>
-  </si>
-  <si>
-    <t>Hbase数据是按列存储-每一列单独存放。列存储的优点是数据即是索引</t>
-  </si>
-  <si>
-    <t>HBase数据模型</t>
-  </si>
-  <si>
-    <t>Column Family中有很多Column</t>
-  </si>
-  <si>
-    <t>一个Row key对应很多Column Family</t>
-  </si>
-  <si>
-    <t>Hbase的所有操作均是基于rowkey的。支持CRUD（Create、Read、Update和Delete）和 Scan操作</t>
-  </si>
-  <si>
-    <t>HBase物理模型</t>
-  </si>
-  <si>
-    <t>Hbase解决HDFS的问题：</t>
-  </si>
-  <si>
-    <t>Region是HBase中分布式存储和负载均衡的最小单元。 不同Region分布到不同RegionServer上。</t>
-  </si>
-  <si>
-    <t>每个表开始只有一个region，随 着数据增多，region不断增大，当增大到一个阀值的时候， region就会等分会两个新的region，之后会有越来越多的 region</t>
-  </si>
-  <si>
-    <t>Region虽然是分布式存储的最小单元，但并不是存储 的最小单元</t>
-  </si>
-  <si>
-    <t>Region由一个或者多个Store组成，每个store保存一个 columns family。</t>
-  </si>
-  <si>
-    <t>每个Strore又由一个memStore和0至多个StoreFile组成</t>
-  </si>
-  <si>
-    <t>memStore存储在内存中，StoreFile存储在HDFS上</t>
-  </si>
-  <si>
-    <t>问题：解释一下元数据？</t>
-  </si>
-  <si>
-    <t>HBase基本架构</t>
-  </si>
-  <si>
-    <t>Client包含访问HBase的接口，并维护cache来加快对HBase的访问</t>
-  </si>
-  <si>
-    <t>Zookeeper用来保证任何时候，集群中只有一个master，存贮所有Region的寻址入口以及实时监控Region server的上线和下线信息。并实时通知给Master存储HBase的schema和table元数据</t>
-  </si>
-  <si>
-    <t>HMaster负责为Region server分配region和Region server的负载均衡。如果发现失效的Region server并重新分配其上的region。同时，管理用户对table的增删改查操作</t>
-  </si>
-  <si>
-    <t>Region Server 负责维护region，处理对这些region的IO请求并且切分在运行过程中变得过大的region</t>
-  </si>
-  <si>
-    <t>Client每次写数据库之前，都会首先血Hlog日志。记录写操作。如果不做日志记录，一旦发生故障，操作将不可恢复</t>
-  </si>
-  <si>
-    <t> HBase 依赖ZooKeeper，默认情况下，HBase 管理ZooKeeper 实例。比如， 启动或者停止ZooKeeper。Master与RegionServers 启动时会向ZooKeeper注册。</t>
-  </si>
-  <si>
-    <t>zookeeper的引入使得 Master不再是单点故障</t>
-  </si>
-  <si>
-    <t>Hbase适合需对数据进行随机读操作或者随机写操作、大数据上高并发操作</t>
-  </si>
-  <si>
-    <t>在表创建时声明，每个Column Family为一个存储单元</t>
-  </si>
-  <si>
-    <t>行主键</t>
-  </si>
-  <si>
-    <t>Column（列）</t>
-  </si>
-  <si>
-    <t>HBase的每个列都属于一个列族，以列族名为前缀，如列article:title和article:content属于article列族</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>HBase通过row和column确定一份数据，这份数据的值可能有多个版本，不同版本的值按照时间倒序排序，即最新的数据排在最前面，查询时默认返回最新版本</t>
-  </si>
-  <si>
-    <t>Row key</t>
-  </si>
-  <si>
-    <t>Column Family（列族）</t>
-  </si>
-  <si>
-    <t>TableName 是字符串</t>
-  </si>
-  <si>
-    <t>RowKey 和 ColumnName 是二进制值（Java 类型 byte[]）</t>
-  </si>
-  <si>
-    <t>Timestamp 是一个 64 位整数（Java 类型 long）</t>
-  </si>
-  <si>
-    <t>value 是一个字节数组（Java类型 byte[]）</t>
-  </si>
-  <si>
-    <t>表应该有多少个列簇</t>
-  </si>
-  <si>
-    <t>列簇使用什么数据</t>
-  </si>
-  <si>
-    <t>每个列簇应有多少个列</t>
-  </si>
-  <si>
-    <t>列名应该是什么，尽管列名不必在建表时定义，但是读写数据时是需要的</t>
-  </si>
-  <si>
-    <t>Hbase 优缺点</t>
-  </si>
-  <si>
-    <t>列可以动态增加，并且列为空就不存储数据，节省存储空间</t>
-  </si>
-  <si>
-    <t>Hbase自动切分数据，使得数据存储自动具有水平scalability</t>
-  </si>
-  <si>
-    <t>Hbase可以提供高并发读写操作的支持</t>
-  </si>
-  <si>
-    <t>不能支持条件查询，只支持按照Row key来查询</t>
-  </si>
-  <si>
-    <t>HBase并不适合传统的事物处理程序或关联分析，不支持复杂查询</t>
-  </si>
-  <si>
-    <t>缺点</t>
-  </si>
-  <si>
-    <t>优点</t>
-  </si>
-  <si>
-    <t>设计时应该考虑什么问题</t>
+    <t>优缺点</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>行主键   Hbase的所有操作均是基于rowkey的。支持CRUD（Create、Read、Update和Delete）和 Scan操作</t>
+  </si>
+  <si>
+    <t>物理模型</t>
+  </si>
+  <si>
+    <t>* 要针对数据模型和物理模型进行设计</t>
+  </si>
+  <si>
+    <t>zookeeper的作用</t>
+  </si>
+  <si>
+    <t>Hlog日志</t>
+  </si>
+  <si>
+    <r>
+      <t>Hbase适合需对数据进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>随机读操作或者随机写操作、大数据上高并发操作</t>
+    </r>
+  </si>
+  <si>
+    <t>轨迹</t>
+  </si>
+  <si>
+    <t>订单事件</t>
+  </si>
+  <si>
+    <r>
+      <t>满足App用户或者后端分析人员的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实时或准实时轨迹坐标查询</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +843,127 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +973,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -269,20 +981,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -296,61 +1060,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>404</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>439</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="https://mmbiz.qpic.cn/mmbiz_png/Yicunacl1x3t9SgwRPCdpqJ4tPkGasvywygNDyhsg3p7CJG2lJ8Sk7GGCq4PWHNNibaZDiaKeGX1C5Q4kW946IicaA/640?wx_fmt=png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="4023360"/>
-          <a:ext cx="10287000" cy="6446520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -372,7 +1081,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect l="29268" t="31201" r="9539" b="15285"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -392,13 +1101,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -409,7 +1118,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -446,15 +1155,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -464,7 +1173,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -478,7 +1187,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="678180" y="16588740"/>
+          <a:off x="845820" y="15140940"/>
           <a:ext cx="7993380" cy="4411980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -502,13 +1211,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -519,7 +1228,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -557,13 +1266,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -574,7 +1283,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -612,13 +1321,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -629,7 +1338,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -667,13 +1376,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -684,7 +1393,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -721,15 +1430,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -739,7 +1448,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -753,7 +1462,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="609600" y="38656260"/>
+          <a:off x="701040" y="43464480"/>
           <a:ext cx="8763000" cy="4594860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -776,15 +1485,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>321</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -794,7 +1503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -808,7 +1517,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2042160" y="47083980"/>
+          <a:off x="2194560" y="51595020"/>
           <a:ext cx="3832860" cy="4175760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -831,15 +1540,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>331</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>355</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -849,7 +1558,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -863,7 +1572,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1341120" y="49888140"/>
+          <a:off x="1280160" y="57950100"/>
           <a:ext cx="7612380" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -887,13 +1596,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>347</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -941,6 +1650,176 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>92848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="http://dl2.iteye.com/upload/attachment/0125/5819/118ab678-3fcc-365d-a043-a9427ce48617.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="876300" y="1661160"/>
+          <a:ext cx="3710940" cy="5205868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>182879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>40108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="http://dl2.iteye.com/upload/attachment/0125/5821/de2aa799-d06b-3900-8887-db0591244345.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8199119"/>
+          <a:ext cx="9883140" cy="2417549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="https://mmbiz.qpic.cn/mmbiz_png/Yicunacl1x3t9SgwRPCdpqJ4tPkGasvywygNDyhsg3p7CJG2lJ8Sk7GGCq4PWHNNibaZDiaKeGX1C5Q4kW946IicaA/640?wx_fmt=png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="1051560"/>
+          <a:ext cx="9151620" cy="5735015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1233,11 +2112,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N449"/>
+  <dimension ref="A2:R353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1254,25 +2131,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="1"/>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
+      <c r="B35" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="36" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
@@ -1325,297 +2196,469 @@
     <row r="52" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
+    <row r="53" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B65" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B105" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B106" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B107" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B108" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C112" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="16"/>
+      <c r="E112" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C114" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="16"/>
+      <c r="E114" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G114" s="16"/>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="119" spans="2:12" ht="18" x14ac:dyDescent="0.35">
+      <c r="B119" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C120" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C121" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C122" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C123" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" t="s">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>17</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A231" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R239" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R240" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R241" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="18:18" x14ac:dyDescent="0.3">
+      <c r="R242" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C261" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B272" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B307" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B308" s="8"/>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A341" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B344" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C347" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C348" s="20"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C349" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C350" s="20"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C351" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C352" s="20"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C353" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C74" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C75" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C76" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C77" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>17</v>
-      </c>
-      <c r="L82" s="5"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L83" s="5"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" s="5"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="L85" s="5"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F114:G114"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="10"/>
+    </row>
+    <row r="45" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="54" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A54" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="21"/>
+    </row>
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B58" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="J68" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J70" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C123" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C125" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A136" s="1" t="s">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J71" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C142" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C144" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A150" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B231" t="s">
-        <v>26</v>
-      </c>
-      <c r="N231" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B232" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A252" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B282" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B283" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B284" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B285" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B296" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B297" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B330" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A396" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B398" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C442" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C443" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C444" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C445" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C446" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C447" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C448" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C449" t="s">
-        <v>10</v>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J72" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J73" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="B92" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" ht="21" x14ac:dyDescent="0.4">
+      <c r="C109" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D113" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A120" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1623,4 +2666,401 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="14"/>
+    <col min="2" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B47" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B48" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B49" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B50" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B51" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B52" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B53" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="12"/>
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B59" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B60" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B61" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B62" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B68" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B69" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B70" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:N12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>